--- a/statistics/HistoricalDistanceData/historical_distance/Q5598781-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q5598781-en.xlsx
@@ -31,28 +31,28 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Blizzard of ’78 brought chilly attitudes to campus</t>
+  </si>
+  <si>
     <t>Statewide Blizzard</t>
   </si>
   <si>
     <t>Pressure Records: The October 26-27, 2010 Significant Extratropical Cyclone</t>
   </si>
   <si>
-    <t>Blizzard of ’78 brought chilly attitudes to campus</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>http://miamistudent.net/?p=110293</t>
+  </si>
+  <si>
     <t>https://web.archive.org/web/20060506165233/http://www.ohiohistory.org/etcetera/exhibits/swio/pages/content/1978_blizzard.htm</t>
   </si>
   <si>
     <t>http://www.weather.gov/dlh/101026_pressurerecords</t>
-  </si>
-  <si>
-    <t>http://miamistudent.net/?p=110293</t>
   </si>
 </sst>
 </file>
